--- a/Master-Stock Sheet Original.xlsx
+++ b/Master-Stock Sheet Original.xlsx
@@ -1257,7 +1257,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Priyanka Madam</t>
+          <t>Priyanka Madam(One Item Back Order)</t>
         </is>
       </c>
     </row>
